--- a/Data/Subgroup_I_32_2.xlsx
+++ b/Data/Subgroup_I_32_2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AAAAA\Backup of ISRUC-Sleep Dataset\ISRUC_Sleep Complete version\Subgroup I\32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/MDataSci/data601/project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04A5F79-FCA2-9B4F-AB33-B9A1D06CBDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20115" windowHeight="10545"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="20120" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -187,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,9 +228,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,29 +473,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -523,7 +524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -546,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -569,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -592,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -615,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -638,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -661,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -684,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -713,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -736,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -759,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -782,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -805,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -828,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -851,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -874,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -897,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -920,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -943,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -966,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -989,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4292,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4902,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5227,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5319,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5388,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -5509,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5929,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5952,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -6044,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -6280,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -6487,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -6887,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -7235,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -7281,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -7500,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -7523,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -7569,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -7592,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -7733,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -7831,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -7926,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -7949,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -8182,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -8205,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -8297,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -8343,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -8435,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -8481,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -8504,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -8527,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -8573,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -8688,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -8783,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -8806,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -8852,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -8875,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -8967,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -9105,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -9174,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -9361,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -9384,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -9407,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -9430,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -9476,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -9499,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -9522,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -9686,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -9807,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -9830,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -9853,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -9876,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -9922,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -9945,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -9968,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -10037,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -10060,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -10106,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -10158,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -10230,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -10302,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -10466,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -10512,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -10535,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -10561,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -10584,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -10630,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -10676,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -10768,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -10843,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -10912,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -10984,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -11033,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -11079,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -11102,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -11125,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -11171,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -11197,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -11220,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -11243,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -11269,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -11295,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -11318,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -11341,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -11364,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -11387,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -11410,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -11456,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -11479,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -11574,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -11597,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -11643,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -11666,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -11735,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -11761,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -11784,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -11853,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -11902,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -11925,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -11948,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -11971,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -12020,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -12043,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -12066,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -12138,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -12164,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -12187,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -12210,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -12256,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -12302,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -12328,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -12351,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -12374,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -12397,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -12420,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -12443,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -12466,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -12489,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -12535,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -12558,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -12581,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -12604,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -12627,7 +12628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -12650,7 +12651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -12673,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -12696,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -12811,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -12837,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -12860,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -12886,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -12909,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -12932,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -12955,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -12978,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -13001,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -13024,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -13047,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -13096,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -13122,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -13145,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -13168,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -13194,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -13220,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -13243,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -13266,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -13292,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -13315,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -13341,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -13364,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -13390,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -13413,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -13436,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -13505,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -13528,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -13551,7 +13552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -13577,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -13600,7 +13601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -13672,7 +13673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -13698,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -13721,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -13747,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -13770,7 +13771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -13793,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -13816,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -13839,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -13862,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -13885,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -13908,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -13931,7 +13932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -13954,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -14000,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -14023,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -14046,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -14069,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -14092,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -14115,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -14138,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -14161,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -14184,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -14207,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -14230,7 +14231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -14253,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -14276,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -14322,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -14345,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -14368,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -14391,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -14414,7 +14415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -14437,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -14460,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -14552,7 +14553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -14575,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -14598,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -14621,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -14644,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -14667,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -14690,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -14759,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -14805,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -14831,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -14857,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -14880,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -14906,7 +14907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -14929,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -14975,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -14998,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -15021,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -15044,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -15070,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -15093,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -15142,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -15165,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -15188,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -15234,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -15257,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -15280,7 +15281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -15326,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -15372,7 +15373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -15395,7 +15396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -15418,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -15441,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -15464,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -15487,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -15556,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -15625,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -15648,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -15671,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -15694,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -15717,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -15740,7 +15741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -15763,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -15786,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -15809,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -15832,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -15855,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -15878,7 +15879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -15904,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -15927,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -15976,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -15999,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -16022,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -16045,7 +16046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -16091,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -16114,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -16137,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -16160,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -16183,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -16206,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -16229,7 +16230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -16252,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -16275,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -16298,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -16321,7 +16322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -16344,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -16367,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -16390,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -16413,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -16436,7 +16437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -16459,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -16482,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -16505,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -16528,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -16551,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -16574,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -16597,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -16643,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -16666,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -16689,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -16715,7 +16716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -16741,7 +16742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -16764,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -16787,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -16810,7 +16811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -16833,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -16856,7 +16857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -16879,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -16902,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -16928,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -16951,7 +16952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -16997,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -17020,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -17043,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -17066,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -17089,7 +17090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -17115,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -17138,7 +17139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -17161,7 +17162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -17184,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -17207,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -17230,7 +17231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -17276,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -17299,7 +17300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -17322,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -17345,7 +17346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -17368,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -17414,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -17440,7 +17441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -17463,7 +17464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -17486,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -17509,7 +17510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -17532,7 +17533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -17555,7 +17556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -17578,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -17601,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -17627,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -17650,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -17673,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -17696,7 +17697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -17719,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -17745,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -17768,7 +17769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -17791,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -17814,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -17837,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -17863,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -17889,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -17912,7 +17913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -17935,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -17958,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -17984,7 +17985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -18059,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -18082,7 +18083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -18105,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -18128,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -18151,7 +18152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -18174,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -18197,7 +18198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -18220,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -18243,7 +18244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -18266,7 +18267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -18289,7 +18290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -18312,7 +18313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -18335,7 +18336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -18358,7 +18359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -18381,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -18404,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -18427,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -18450,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -18473,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -18496,7 +18497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -18519,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -18542,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -18568,7 +18569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -18591,7 +18592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -18614,7 +18615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -18637,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -18660,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -18683,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -18706,7 +18707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -18729,7 +18730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -18752,7 +18753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -18775,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -18798,7 +18799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -18821,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -18844,7 +18845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -18870,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -18893,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -18916,7 +18917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -18939,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -18962,7 +18963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -18985,7 +18986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -19008,7 +19009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -19031,7 +19032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -19057,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -19080,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -19103,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -19129,7 +19130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -19152,7 +19153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -19175,7 +19176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -19198,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -19221,7 +19222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -19244,7 +19245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -19267,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -19290,7 +19291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -19313,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -19336,7 +19337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -19362,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -19385,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -19408,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -19431,7 +19432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -19454,7 +19455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -19477,7 +19478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -19500,7 +19501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -19523,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -19549,7 +19550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -19572,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -19595,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -19618,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -19641,7 +19642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -19667,7 +19668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -19690,7 +19691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -19713,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -19736,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -19759,7 +19760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -19782,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -19808,7 +19809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -19834,7 +19835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -19857,7 +19858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -19906,7 +19907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -19929,7 +19930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -19952,7 +19953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -19975,7 +19976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -19998,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -20021,7 +20022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -20044,7 +20045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -20093,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -20116,7 +20117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -20139,7 +20140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -20162,7 +20163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -20188,7 +20189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -20211,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -20234,7 +20235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -20280,7 +20281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -20303,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -20326,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -20349,7 +20350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -20375,7 +20376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -20398,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -20421,7 +20422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -20447,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -20473,7 +20474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -20496,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -20522,7 +20523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -20545,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -20568,7 +20569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -20591,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -20614,7 +20615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -20637,7 +20638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -20660,7 +20661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -20683,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -20706,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -20729,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -20752,7 +20753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -20775,7 +20776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -20798,7 +20799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -20821,7 +20822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -20844,7 +20845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -20867,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -20890,7 +20891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -20916,7 +20917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -20939,7 +20940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -20962,7 +20963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -20985,7 +20986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -21008,7 +21009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -21031,7 +21032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -21054,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -21077,7 +21078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -21103,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -21126,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -21149,7 +21150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -21172,7 +21173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -21195,7 +21196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -21218,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -21241,7 +21242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -21264,7 +21265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -21287,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -21310,7 +21311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -21333,7 +21334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -21356,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -21379,7 +21380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -21402,7 +21403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -21425,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -21448,7 +21449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -21471,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -21494,7 +21495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -21517,7 +21518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -21540,7 +21541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -21563,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -21586,7 +21587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>901</v>
       </c>
@@ -21609,7 +21610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>902</v>
       </c>
@@ -21632,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>903</v>
       </c>
@@ -21655,7 +21656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>904</v>
       </c>
@@ -21678,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>905</v>
       </c>
@@ -21701,7 +21702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>906</v>
       </c>
@@ -21724,7 +21725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>907</v>
       </c>
@@ -21747,7 +21748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>908</v>
       </c>
@@ -21770,7 +21771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>909</v>
       </c>
@@ -21793,7 +21794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>910</v>
       </c>
@@ -21816,7 +21817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>911</v>
       </c>
@@ -21839,7 +21840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>912</v>
       </c>
@@ -21862,7 +21863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>913</v>
       </c>
@@ -21885,7 +21886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>914</v>
       </c>
@@ -21908,7 +21909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>915</v>
       </c>
@@ -21931,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>916</v>
       </c>
@@ -21954,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>917</v>
       </c>
@@ -21977,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>918</v>
       </c>
@@ -22000,7 +22001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>919</v>
       </c>
@@ -22023,7 +22024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>920</v>
       </c>
@@ -22049,7 +22050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>921</v>
       </c>
@@ -22072,7 +22073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>922</v>
       </c>
@@ -22098,7 +22099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>923</v>
       </c>
@@ -22121,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>924</v>
       </c>
@@ -22147,7 +22148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>925</v>
       </c>
@@ -22170,7 +22171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>926</v>
       </c>
@@ -22193,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>927</v>
       </c>
@@ -22216,7 +22217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>928</v>
       </c>
@@ -22239,7 +22240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>929</v>
       </c>
@@ -22262,7 +22263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>930</v>
       </c>
@@ -22285,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>931</v>
       </c>
@@ -22308,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>932</v>
       </c>
@@ -22334,7 +22335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>933</v>
       </c>
@@ -22357,7 +22358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>934</v>
       </c>
@@ -22380,7 +22381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>935</v>
       </c>
@@ -22403,7 +22404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>936</v>
       </c>
@@ -22426,7 +22427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>937</v>
       </c>
@@ -22449,7 +22450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>938</v>
       </c>
@@ -22472,7 +22473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>939</v>
       </c>
@@ -22495,7 +22496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>940</v>
       </c>
@@ -22518,7 +22519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>941</v>
       </c>
@@ -22541,7 +22542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>942</v>
       </c>
@@ -22564,7 +22565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>943</v>
       </c>
@@ -22590,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>944</v>
       </c>
@@ -22613,7 +22614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>945</v>
       </c>
@@ -22636,7 +22637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>946</v>
       </c>
@@ -22662,7 +22663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>947</v>
       </c>
@@ -22685,7 +22686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>948</v>
       </c>
@@ -22708,7 +22709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>949</v>
       </c>
@@ -22731,7 +22732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>950</v>
       </c>
@@ -22754,7 +22755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>951</v>
       </c>
@@ -22777,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>952</v>
       </c>
@@ -22800,7 +22801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>953</v>
       </c>
@@ -22823,7 +22824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>954</v>
       </c>
@@ -22846,7 +22847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>955</v>
       </c>
@@ -22869,7 +22870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>956</v>
       </c>
@@ -22892,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>957</v>
       </c>
@@ -22915,7 +22916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>958</v>
       </c>
@@ -22938,7 +22939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>959</v>
       </c>
@@ -22961,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>960</v>
       </c>
@@ -22984,7 +22985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>961</v>
       </c>
@@ -23007,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>962</v>
       </c>
@@ -23030,7 +23031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>963</v>
       </c>
@@ -23056,7 +23057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>964</v>
       </c>
@@ -23079,7 +23080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>965</v>
       </c>
@@ -23102,7 +23103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>966</v>
       </c>
@@ -23125,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
         <v>967</v>
       </c>
@@ -23148,7 +23149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>968</v>
       </c>
@@ -23171,7 +23172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>969</v>
       </c>
@@ -23194,7 +23195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>970</v>
       </c>
@@ -23220,7 +23221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>971</v>
       </c>
@@ -23243,7 +23244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>972</v>
       </c>
@@ -23266,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>973</v>
       </c>
@@ -23289,7 +23290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>974</v>
       </c>
@@ -23312,7 +23313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>975</v>
       </c>
@@ -23335,7 +23336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>976</v>
       </c>
@@ -23358,7 +23359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
         <v>977</v>
       </c>
@@ -23381,7 +23382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>978</v>
       </c>
@@ -23404,7 +23405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>979</v>
       </c>
@@ -23427,7 +23428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>980</v>
       </c>
@@ -23450,7 +23451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>981</v>
       </c>
@@ -23473,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>982</v>
       </c>
@@ -23496,7 +23497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>983</v>
       </c>
@@ -23519,7 +23520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>984</v>
       </c>
@@ -23542,7 +23543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>985</v>
       </c>
@@ -23565,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>986</v>
       </c>
@@ -23588,7 +23589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
         <v>987</v>
       </c>
@@ -23611,7 +23612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>988</v>
       </c>
@@ -23634,7 +23635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>989</v>
       </c>
@@ -23657,7 +23658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>990</v>
       </c>
@@ -23680,7 +23681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>991</v>
       </c>
@@ -23703,7 +23704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
         <v>992</v>
       </c>
@@ -23726,7 +23727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
         <v>993</v>
       </c>
@@ -23752,7 +23753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
         <v>994</v>
       </c>
@@ -23775,7 +23776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
         <v>995</v>
       </c>
@@ -23798,7 +23799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>996</v>
       </c>
@@ -23821,7 +23822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>997</v>
       </c>
@@ -23844,7 +23845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
         <v>998</v>
       </c>
@@ -23867,7 +23868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
         <v>999</v>
       </c>
@@ -23890,7 +23891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
         <v>1000</v>
       </c>
@@ -23913,7 +23914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
         <v>1001</v>
       </c>
@@ -23936,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>1002</v>
       </c>
@@ -23959,7 +23960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
         <v>1003</v>
       </c>
@@ -23982,7 +23983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
         <v>1004</v>
       </c>
@@ -24005,7 +24006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>1005</v>
       </c>
@@ -24028,7 +24029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
         <v>1006</v>
       </c>
@@ -24054,7 +24055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1008" s="1">
         <v>1007</v>
       </c>
@@ -24077,7 +24078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1009" s="1">
         <v>1008</v>
       </c>
@@ -24100,7 +24101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1010" s="1">
         <v>1009</v>
       </c>
@@ -24123,7 +24124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1011" s="1">
         <v>1010</v>
       </c>
@@ -24156,24 +24157,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
